--- a/SEMESTRE 2/CICLO 1/Simulacion/SEMANA 2/Quiz.xlsx
+++ b/SEMESTRE 2/CICLO 1/Simulacion/SEMANA 2/Quiz.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/U1037319/Desktop/INFORMACION/MAESTRIA-ANALITICA-INTELIGENCIA-DATOS/SEMESTRE 2/CICLO 1/Simulacion/SEMANA 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7B4990-32D3-0F4C-BC66-6EF34D369E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD621E6-45BB-C34E-AA03-F478E7720A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="760" windowWidth="28040" windowHeight="17040" xr2:uid="{EE0D6F64-14DD-414E-B25F-FBA52E1BA49D}"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17040" xr2:uid="{EE0D6F64-14DD-414E-B25F-FBA52E1BA49D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -155,6 +155,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>79619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D993764-2242-6170-4670-9FFB6929C298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5080000" y="3378200"/>
+          <a:ext cx="7772400" cy="3064119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,7 +526,7 @@
   <dimension ref="A5:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,11 +612,11 @@
         <v>7</v>
       </c>
       <c r="I6">
-        <f>D6+G6</f>
+        <f t="shared" ref="I6:I11" si="0">D6+G6</f>
         <v>5</v>
       </c>
       <c r="J6">
-        <f>C6+I6</f>
+        <f t="shared" ref="J6:J11" si="1">C6+I6</f>
         <v>5</v>
       </c>
       <c r="K6">
@@ -585,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="O6">
-        <f>C6+N6</f>
+        <f t="shared" ref="O6:O11" si="2">C6+N6</f>
         <v>10</v>
       </c>
     </row>
@@ -616,11 +665,11 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <f>D7+G7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J7">
-        <f>C7+I7</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K7">
@@ -639,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="O7">
-        <f>C7+N7</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
@@ -651,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C11" si="0">C7+B8</f>
+        <f t="shared" ref="C8:C11" si="3">C7+B8</f>
         <v>5</v>
       </c>
       <c r="D8">
@@ -671,11 +720,11 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <f>D8+G8</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J8">
-        <f>C8+I8</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K8">
@@ -692,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="O8">
-        <f>C8+N8</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -704,31 +753,31 @@
         <v>3</v>
       </c>
       <c r="C9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f>O8-C9</f>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9">
-        <f>O8-C9</f>
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <f>D9+G9</f>
-        <v>8</v>
-      </c>
       <c r="J9">
-        <f>C9+I9</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K9">
@@ -746,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="O9">
-        <f>C9+N9</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -758,31 +807,31 @@
         <v>1</v>
       </c>
       <c r="C10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f>O7-C10</f>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10">
-        <f>O7-C10</f>
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <f>D10+G10</f>
-        <v>9</v>
-      </c>
       <c r="J10">
-        <f>C10+I10</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K10">
@@ -801,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="O10">
-        <f>C10+N10</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -813,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D11">
@@ -833,11 +882,11 @@
         <v>12</v>
       </c>
       <c r="I11">
-        <f>D11+G11</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="J11">
-        <f>C11+I11</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="K11">
@@ -854,11 +903,12 @@
         <v>13</v>
       </c>
       <c r="O11">
-        <f>C11+N11</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>